--- a/ApolloQA/Data/RatingManual/GA/VA00053.CoveredAutosFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00053.CoveredAutosFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00053.CoveredAutosFactors" sheetId="1" r:id="Rcde5fb4e44c04092"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00053.CoveredAutosFactors" sheetId="1" r:id="R68086e1fc427495c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,36 +12,180 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Covered Autos</x:v>
+        <x:v>Fleet Size Lower Bound</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Covered Autos Factor</x:v>
+        <x:v>Fleet Size Upper Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fleet Size Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>All Owned Autos</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1500</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>Any Auto</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.2000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>Scheduled Autos</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
       </x:c>
     </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8493</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8493</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8493</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8493</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>